--- a/src/curiumimportfile.xlsx
+++ b/src/curiumimportfile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Admission No</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Contact Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocontact Number</t>
   </si>
 </sst>
 </file>
@@ -263,7 +266,7 @@
   <dimension ref="A1:AO132"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -274,6 +277,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.04"/>
@@ -328,7 +332,9 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>

--- a/src/curiumimportfile.xlsx
+++ b/src/curiumimportfile.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Admission No</t>
   </si>
   <si>
     <t xml:space="preserve">Student Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
   </si>
   <si>
     <t xml:space="preserve">Class Studying</t>
@@ -263,51 +266,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO132"/>
+  <dimension ref="A1:AP132"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="25.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="16.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="23.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="21.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="26.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="34.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="19.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1017" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="19.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="28.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="25.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="9.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="16.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="23.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="26.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="34.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="19.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,438 +329,441 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="4"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="AO2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="AP2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="5"/>
-      <c r="J3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="5"/>
-      <c r="AO4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="AP4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="5"/>
-      <c r="AO7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="AP7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="5"/>
-      <c r="J11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
